--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130C7007-4AF8-4544-8590-ED532D7FA7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF203A0-26D0-4936-AE4A-BCC016238470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,27 +1149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,28 +1167,43 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,17 +1214,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,78 +1781,78 @@
   <sheetData>
     <row r="1" spans="1:7" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="19">
         <v>45175</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1871,8 +1871,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,931 +1887,931 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="28"/>
+      <c r="F2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="28"/>
+      <c r="F3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="28"/>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="28"/>
+      <c r="F5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="28"/>
+      <c r="F6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="28"/>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="28"/>
+      <c r="F8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="28"/>
+      <c r="F9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="28"/>
+      <c r="F12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="28"/>
+      <c r="F13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="28"/>
+      <c r="F14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="28"/>
+      <c r="F15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="28"/>
+      <c r="F16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="28"/>
+      <c r="F17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="28"/>
+      <c r="F18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="28"/>
+      <c r="F19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="28"/>
+      <c r="F20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="e">
-        <f t="shared" ref="A23:A24" si="0">A22+1</f>
+      <c r="A23" s="18" t="e">
+        <f t="shared" ref="A23" si="0">A22+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="28"/>
+      <c r="F24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="28"/>
+      <c r="F25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="28"/>
+      <c r="F26" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="28"/>
+      <c r="F27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="28"/>
+      <c r="F28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="28"/>
+      <c r="F29" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="28"/>
+      <c r="F30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="28"/>
+      <c r="F31" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="28"/>
+      <c r="F32" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="28"/>
+      <c r="F33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="28"/>
+      <c r="F34" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="28"/>
+      <c r="F35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="28"/>
+      <c r="F36" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F37" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="28"/>
+      <c r="F37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="28"/>
+      <c r="F38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="28"/>
+      <c r="F39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F40" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="28"/>
+      <c r="F40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="28"/>
+      <c r="F41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="28"/>
+      <c r="F42" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="28"/>
+      <c r="F43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="18" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2854,59 +2854,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="7">
         <f>COUNTA(Cenários!B:B)-1</f>
         <v>42</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="8">
         <f>COUNTIF(Cenários!F:F,"OK")</f>
         <v>37</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="11">
         <f>B4/B3</f>
         <v>0.88095238095238093</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="8">
         <f>COUNTIF(Cenários!F:F,"NOK")</f>
         <v>5</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="11">
         <f>B5/B3</f>
         <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="9">
         <f>B3-B4-B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <f>B6/B3</f>
         <v>0</v>
       </c>

--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF203A0-26D0-4936-AE4A-BCC016238470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BC019-5B16-444F-B216-DD03248BAB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="151">
   <si>
     <t>Projeto</t>
   </si>
@@ -230,20 +230,6 @@
   </si>
   <si>
     <t>Validar preenchimento dos campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar home do site: https://parabank.parasoft.com/parabank/;  
-2. No campo username preencher com o nome "john"
-3. Deixar o campo password vazio;
-4. Clicar em login.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar home do site: https://parabank.parasoft.com/parabank/;  
-2. No campo username deixar vazio;
-3. No campo password preencher com o nome "demo";
-4. Clicar em login.
-</t>
   </si>
   <si>
     <t>CT102</t>
@@ -755,6 +741,13 @@
   </si>
   <si>
     <t>Deverá ser redirecionado para a home, com o formulário de login disponível para ser feito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Acessar home do site: https://parabank.parasoft.com/parabank/;  
+2. Deixar o campo username vazio;
+3. Deixar o campo password vazio;
+4. Clicar em login.
+</t>
   </si>
 </sst>
 </file>
@@ -1178,15 +1171,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,15 +1189,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1206,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,7 +1380,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -1763,7 +1756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1781,37 +1774,37 @@
   <sheetData>
     <row r="1" spans="1:7" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1822,7 +1815,7 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1833,7 +1826,7 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="19">
@@ -1844,7 +1837,7 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1869,10 +1862,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,25 +1880,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1920,31 +1913,31 @@
         <v>30</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>23</v>
@@ -1953,7 +1946,7 @@
     </row>
     <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>28</v>
@@ -1965,28 +1958,28 @@
         <v>35</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>23</v>
@@ -1995,19 +1988,19 @@
     </row>
     <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>23</v>
@@ -2016,149 +2009,149 @@
     </row>
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="C12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="D13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>23</v>
@@ -2167,40 +2160,40 @@
     </row>
     <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>23</v>
@@ -2209,82 +2202,82 @@
     </row>
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="F17" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="E18" s="18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>23</v>
@@ -2293,13 +2286,13 @@
     </row>
     <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>99</v>
@@ -2308,22 +2301,24 @@
         <v>100</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>102</v>
@@ -2335,58 +2330,56 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="18" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="e">
+        <f t="shared" ref="A22" si="0">A21+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="e">
-        <f t="shared" ref="A23" si="0">A22+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="C24" s="18" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>23</v>
@@ -2395,19 +2388,19 @@
     </row>
     <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>23</v>
@@ -2416,19 +2409,19 @@
     </row>
     <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>23</v>
@@ -2437,19 +2430,19 @@
     </row>
     <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>23</v>
@@ -2458,13 +2451,13 @@
     </row>
     <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>115</v>
@@ -2479,19 +2472,19 @@
     </row>
     <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>23</v>
@@ -2500,19 +2493,19 @@
     </row>
     <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>23</v>
@@ -2521,19 +2514,19 @@
     </row>
     <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>23</v>
@@ -2542,19 +2535,19 @@
     </row>
     <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>23</v>
@@ -2563,40 +2556,40 @@
     </row>
     <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="F33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="E34" s="18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>23</v>
@@ -2605,19 +2598,19 @@
     </row>
     <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>23</v>
@@ -2626,40 +2619,40 @@
     </row>
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="F36" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>129</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>130</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>23</v>
@@ -2668,37 +2661,37 @@
     </row>
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E38" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>121</v>
@@ -2710,55 +2703,55 @@
     </row>
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>133</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E41" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>137</v>
@@ -2771,15 +2764,15 @@
       </c>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>139</v>
@@ -2788,37 +2781,16 @@
         <v>140</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F44">
+  <conditionalFormatting sqref="F2:F43">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -2827,7 +2799,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"-,OK,NOK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2854,39 +2826,39 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7">
         <f>COUNTA(Cenários!B:B)-1</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8">
         <f>COUNTIF(Cenários!F:F,"OK")</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11">
         <f>B4/B3</f>
-        <v>0.88095238095238093</v>
+        <v>0.87804878048780488</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8">
@@ -2895,11 +2867,11 @@
       </c>
       <c r="C5" s="11">
         <f>B5/B3</f>
-        <v>0.11904761904761904</v>
+        <v>0.12195121951219512</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="9">

--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302BC019-5B16-444F-B216-DD03248BAB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3379C53-D757-43E9-9719-F044753132F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="Resultados" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cenários!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cenários!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -25,7 +26,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="229">
   <si>
     <t>Projeto</t>
   </si>
@@ -199,9 +200,6 @@
   </si>
   <si>
     <t>Observação</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>NOK</t>
@@ -275,22 +273,6 @@
   </si>
   <si>
     <t>CT202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar pagina de Register do site: https://parabank.parasoft.com/parabank/register.htm;  
-2. No campo First Name preencher com "Paulo";
-3. No campo Last Name preencher com "Santos;
-4. No campo Address preencher com "Rua A";
-5. No campo City preencher com "Passo Fundo";
-6. No campo State preencher com "RS";
-7. No campo Zip Code preencher com "99001970";
-8. No campo Phone preencher com "54987654321";
-9. No campo SSN preencher com "123456789";
-10. No campo Username preencher com "PauloSantos";
-9. No campo Password preencher com "paulosantos";
-9. No campo Confirm preencher com "paulosantos";
-3. Clicar em Register.
-</t>
   </si>
   <si>
     <t>Os campos Zip Code, Phone, SSN estão aceitando só números.</t>
@@ -749,12 +731,349 @@
 4. Clicar em login.
 </t>
   </si>
+  <si>
+    <t>Validar pagamento de contas (“Bill Pay”);</t>
+  </si>
+  <si>
+    <t>CT405</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Bill Bay
+3. Clicar em Send Payment</t>
+  </si>
+  <si>
+    <t>Deverá aparecer mensagem em cada campo de preenchimento obrigatório.</t>
+  </si>
+  <si>
+    <t>Deverá aparecer a mensagem: "Bill Payment to Paulo in the amount of $100.00 from account 12345 was successful.
+See Account Activity for more details."</t>
+  </si>
+  <si>
+    <t>Deverá aparecer a mensagem: "O campo Amount deverá ter um valor maior que Zero."</t>
+  </si>
+  <si>
+    <t>Está aceitando fazer um pagamento com valor negativo</t>
+  </si>
+  <si>
+    <t>Está aceitando fazer um pagamento com valor zero</t>
+  </si>
+  <si>
+    <t>Validar extratos de conta (“Find Transations”);</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Bill Bay
+3. Preencher o campo Payee Name com "Paulo"
+4. Preencher o campo Adrdress com "Rua C"
+5. Preencher o campo City com "São Paulo"
+6. Preencher o campo State com "SP"
+7. Preencher o campo Zip Code com "01153000"
+8. Preencher o campo Phone com "11987654321"
+9. Preencher o campo Account e Verfy Account com "78945"
+10. Preencher o campo Amount com "0"
+11. No campo From Account, selecionar o primeiro
+12. Clicar em Send Payment</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Bill Bay
+3. Preencher o campo Payee Name com "Paulo"
+4. Preencher o campo Adrdress com "Rua C"
+5. Preencher o campo City com "São Paulo"
+6. Preencher o campo State com "SP"
+7. Preencher o campo Zip Code com "01153000"
+8. Preencher o campo Phone com "11987654321"
+9. Preencher o campo Account e Verfy Account com "78945"
+10. Preencher o campo Amount com "100"
+11. No campo From Account, selecionar o primeiro
+12. Clicar em Send Payment</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Bill Bay
+3. Preencher o campo Payee Name com "Paulo"
+4. Preencher o campo Adrdress com "Rua C"
+5. Preencher o campo City com "São Paulo"
+6. Preencher o campo State com "SP"
+7. Preencher o campo Zip Code com "01153000"
+8. Preencher o campo Phone com "11987654321"
+9. Preencher o campo Account e Verfy Account com "78945"
+10. Preencher o campo Amount com "-100"
+11. No campo From Account, selecionar o primeiro
+12. Clicar em Send Payment</t>
+  </si>
+  <si>
+    <t>Deverá aparecer a mensagem: "Preencha este campo"</t>
+  </si>
+  <si>
+    <t>CT406</t>
+  </si>
+  <si>
+    <t>CT406a</t>
+  </si>
+  <si>
+    <t>Deverá aparecer a mensagem: "Não existe transação com este ID"</t>
+  </si>
+  <si>
+    <t>Aparece uma mensagem de erro interno.</t>
+  </si>
+  <si>
+    <t>CT404a</t>
+  </si>
+  <si>
+    <t>CT405a</t>
+  </si>
+  <si>
+    <t>CT405b</t>
+  </si>
+  <si>
+    <t>CT406b</t>
+  </si>
+  <si>
+    <t>Retorna a transação feita com o ID buscado</t>
+  </si>
+  <si>
+    <t>CT406c</t>
+  </si>
+  <si>
+    <t>Deverá aparecer a mensagem: "Preencha com data válida"</t>
+  </si>
+  <si>
+    <t>CT406d</t>
+  </si>
+  <si>
+    <t>CT406e</t>
+  </si>
+  <si>
+    <t>Retorna sa transações feitas na data buscada</t>
+  </si>
+  <si>
+    <t>CT406f</t>
+  </si>
+  <si>
+    <t>CT406g</t>
+  </si>
+  <si>
+    <t>CT406h</t>
+  </si>
+  <si>
+    <t>Retorna sa transações feitas nas datas buscada</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Between prencher com "09-01-2023" e em And "09-30-2023"
+5. Clicar em Find Transactions do campo Fin By Date Range</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Preencher em Between e And com "1" 
+5. Clicar em Find Transactions do campo Fin By Date Range</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Date Rage deixar em branco
+5. Clicar em Find Transactions do campo Fin By Date Range</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Date preencher com "09-11-2023"
+5. Clicar em Find Transactions do campo Fin By Date</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Date preencher com "1"
+5. Clicar em Find Transactions do campo Fin By Date</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Date deixar em branco
+5. Clicar em Find Transactions do campo Fin By Date</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Transaction ID preencher com "14476"
+5. Clicar em Find Transactions do campo Fin By Transaction ID</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Transaction ID preencher com "99999"
+5. Clicar em Find Transactions do campo Fin By Transaction ID</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Em Fin by Transaction ID deixar em branco
+5. Clicar em Find Transactions do campo Fin By Transaction ID</t>
+  </si>
+  <si>
+    <t>CT406i</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Deixar o campo Find By Amount vazio
+5. Clicar em Find Transactions do campo Fin By Amount</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Find Transactions
+3. No campo Select an account, selecionar a primeira conta
+4. Preencher o campo Find By Amount com "20"
+5. Clicar em Find Transactions do campo Fin By Amount</t>
+  </si>
+  <si>
+    <t>Retorna sa transações feitas com o valor buscado</t>
+  </si>
+  <si>
+    <t>CT406j</t>
+  </si>
+  <si>
+    <t>CT407</t>
+  </si>
+  <si>
+    <t>Validar atualizar informações de contato (“Update Contact Info”);</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Update Contact Info
+3. Apagar todas as informações dos campos
+4. Clicar em Update Profile</t>
+  </si>
+  <si>
+    <t>CT407a</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Update Contact Info
+3. Atualizar o campo Name com "Paulo"
+4. Clicar em Update Profile</t>
+  </si>
+  <si>
+    <t>Deverá aparecer mensagem "Profile Updated"</t>
+  </si>
+  <si>
+    <t>CT408</t>
+  </si>
+  <si>
+    <t>Validar solicitar empréstimo (“Request Loan”);</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Request Loan
+3. Deixar os campos vazios
+4. Clicar em Apply now</t>
+  </si>
+  <si>
+    <t>CT408a</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Request Loan
+3. Preencher o campo Loan Amount com "1000"
+3. Preencher o campo Down Payment com "100"
+4. Clicar em Apply now</t>
+  </si>
+  <si>
+    <t>Deverá aparecer mensagem "Loan Request Processed"</t>
+  </si>
+  <si>
+    <t>1. Fazer o login com o Username: "john" e Password: "demo"
+2. Acessar a funcionalidade Request Loan
+3. Preencher o campo Loan Amount com "100"
+3. Preencher o campo Down Payment com "1000"
+4. Clicar em Apply now</t>
+  </si>
+  <si>
+    <t>Deverá aparecer mensagem "Down Payment deve ser menor do que o valor de Loan Amount"</t>
+  </si>
+  <si>
+    <t>Está deixando fazer um empréstimo com valor de adiantamento maior do que o valor do empréstimo</t>
+  </si>
+  <si>
+    <t>CT408b</t>
+  </si>
+  <si>
+    <t>CT501a</t>
+  </si>
+  <si>
+    <t>CT501b</t>
+  </si>
+  <si>
+    <t>CT501c</t>
+  </si>
+  <si>
+    <t>CT501d</t>
+  </si>
+  <si>
+    <t>CT502a</t>
+  </si>
+  <si>
+    <t>CT502b</t>
+  </si>
+  <si>
+    <t>CT503a</t>
+  </si>
+  <si>
+    <t>CT503b</t>
+  </si>
+  <si>
+    <t>CT503c</t>
+  </si>
+  <si>
+    <t>CT503d</t>
+  </si>
+  <si>
+    <t>CT503e</t>
+  </si>
+  <si>
+    <t>CT503f</t>
+  </si>
+  <si>
+    <t>CT503g</t>
+  </si>
+  <si>
+    <t>CT503h</t>
+  </si>
+  <si>
+    <t>CT504a</t>
+  </si>
+  <si>
+    <t>CT504b</t>
+  </si>
+  <si>
+    <t>Anexo A - Passo a passo para execução dos testes</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>Cenários Automatizados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +1115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -817,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1128,16 +1455,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,52 +1546,106 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,10 +1812,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1429,15 +1861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>289984</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>125942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1754,105 +2186,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:8" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="29"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="29"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45">
+        <v>45175</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="30"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="D7" s="29"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32">
+        <f>COUNTA(Cenários!B:B)-1</f>
+        <v>63</v>
+      </c>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <f>COUNTIF(Cenários!F:F,"OK")</f>
+        <v>51</v>
+      </c>
+      <c r="C12" s="35">
+        <f>B12/B11</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32">
+        <f>COUNTIF(Cenários!F:F,"NOK")</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="35">
+        <f>B13/B11</f>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32">
+        <f>B11-B12-B13</f>
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C14" s="35">
+        <f>B14/B11</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="33">
+        <f>COUNTA(Cenários!I2:I65)</f>
         <v>26</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19">
-        <v>45175</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="C15" s="35">
+        <f>B15/B11</f>
+        <v>0.41269841269841268</v>
+      </c>
+      <c r="D15" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
+  <mergeCells count="8">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1862,935 +2391,1489 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="5" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="6.77734375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="20.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="D3" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="I3" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="I4" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="I5" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="I6" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="I7" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="I9" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="I14" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F45" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="15"/>
+    </row>
+    <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="e">
-        <f t="shared" ref="A22" si="0">A21+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="C46" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="I46" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="I47" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="I48" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="I49" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="I50" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="15"/>
+      <c r="I51" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="15"/>
+      <c r="I52" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="I53" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="15"/>
+      <c r="I54" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="15"/>
+      <c r="I55" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="15"/>
+      <c r="I56" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="I57" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="I58" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="I59" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="I60" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="I61" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="15"/>
+      <c r="I62" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="15"/>
+      <c r="I63" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="15"/>
+      <c r="I64" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="G65" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>141</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F43">
+  <conditionalFormatting sqref="F3:F65">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NOK"</formula>
     </cfRule>
@@ -2799,12 +3882,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"-,OK,NOK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2814,7 +3897,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,59 +3909,59 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <f>COUNTA(Cenários!B:B)-1</f>
-        <v>41</v>
-      </c>
-      <c r="C3" s="10">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <f>COUNTIF(Cenários!F:F,"OK")</f>
-        <v>36</v>
-      </c>
-      <c r="C4" s="11">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8">
         <f>B4/B3</f>
-        <v>0.87804878048780488</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <f>COUNTIF(Cenários!F:F,"NOK")</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
         <f>B5/B3</f>
-        <v>0.12195121951219512</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <f>B3-B4-B5</f>
         <v>0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <f>B6/B3</f>
         <v>0</v>
       </c>

--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3379C53-D757-43E9-9719-F044753132F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F2E34-4B22-406A-B7BC-2474AEC7F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Cenários!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -137,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="229">
   <si>
     <t>Projeto</t>
   </si>
@@ -2188,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2361,11 +2360,11 @@
       </c>
       <c r="B15" s="33">
         <f>COUNTA(Cenários!I2:I65)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C15" s="35">
         <f>B15/B11</f>
-        <v>0.41269841269841268</v>
+        <v>0.65079365079365081</v>
       </c>
       <c r="D15" s="28"/>
     </row>
@@ -2393,8 +2392,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2739,6 +2738,9 @@
         <v>22</v>
       </c>
       <c r="G15" s="15"/>
+      <c r="I15" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
@@ -2760,8 +2762,11 @@
         <v>22</v>
       </c>
       <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I16" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>59</v>
       </c>
@@ -2781,8 +2786,11 @@
         <v>22</v>
       </c>
       <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>88</v>
       </c>
@@ -2802,8 +2810,11 @@
         <v>22</v>
       </c>
       <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>89</v>
       </c>
@@ -2823,8 +2834,11 @@
         <v>22</v>
       </c>
       <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
@@ -2844,8 +2858,11 @@
         <v>22</v>
       </c>
       <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>93</v>
       </c>
@@ -2868,7 +2885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>166</v>
       </c>
@@ -2891,7 +2908,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>150</v>
       </c>
@@ -2911,8 +2928,11 @@
         <v>22</v>
       </c>
       <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>150</v>
       </c>
@@ -2932,8 +2952,11 @@
         <v>22</v>
       </c>
       <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="I24" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>167</v>
       </c>
@@ -2956,7 +2979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>168</v>
       </c>
@@ -2979,7 +3002,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>162</v>
       </c>
@@ -3000,7 +3023,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>163</v>
       </c>
@@ -3023,7 +3046,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>169</v>
       </c>
@@ -3043,8 +3066,11 @@
         <v>22</v>
       </c>
       <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I29" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>171</v>
       </c>
@@ -3065,7 +3091,7 @@
       </c>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>173</v>
       </c>
@@ -3088,7 +3114,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>174</v>
       </c>
@@ -3108,6 +3134,9 @@
         <v>22</v>
       </c>
       <c r="G32" s="15"/>
+      <c r="I32" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
@@ -3194,6 +3223,9 @@
         <v>22</v>
       </c>
       <c r="G36" s="15"/>
+      <c r="I36" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
@@ -3215,6 +3247,9 @@
         <v>22</v>
       </c>
       <c r="G37" s="15"/>
+      <c r="I37" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
@@ -3299,6 +3334,9 @@
         <v>22</v>
       </c>
       <c r="G41" s="15"/>
+      <c r="I41" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
@@ -3343,6 +3381,9 @@
         <v>22</v>
       </c>
       <c r="G43" s="15"/>
+      <c r="I43" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
@@ -3387,6 +3428,9 @@
         <v>22</v>
       </c>
       <c r="G45" s="15"/>
+      <c r="I45" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">

--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F2E34-4B22-406A-B7BC-2474AEC7F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900C37F-2F2B-41B1-9A83-1A011766B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="241">
   <si>
     <t>Projeto</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>CT202</t>
-  </si>
-  <si>
-    <t>Os campos Zip Code, Phone, SSN estão aceitando só números.</t>
   </si>
   <si>
     <t>CT204</t>
@@ -419,10 +416,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Os campos First Name, Last Name, Address, City e State deverão apresentar mensagem de que só aceitam letras;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deverá apresentar a seguinte mensagem: "This username already exists."
 </t>
   </si>
@@ -1066,6 +1059,49 @@
   </si>
   <si>
     <t>Cenários Automatizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os campos First Name, Last Name, Address, City, State e Username deverão apresentar mensagem de que só aceitam letras;
+</t>
+  </si>
+  <si>
+    <t>Os campos First Name, Last Name, Address, City, State e Username estão aceitando só números.</t>
+  </si>
+  <si>
+    <t>cucumber -p default --tags "not @ignore and @home" --retry 2</t>
+  </si>
+  <si>
+    <t>21 testes da home</t>
+  </si>
+  <si>
+    <t>cucumber -p default --tags "not @ignore and @account" --retry 2</t>
+  </si>
+  <si>
+    <t>11 testes da conta</t>
+  </si>
+  <si>
+    <t>cucumber -p default --tags "not @ignore and @user" --retry 2</t>
+  </si>
+  <si>
+    <t>segundos</t>
+  </si>
+  <si>
+    <t>16 testes da conta</t>
+  </si>
+  <si>
+    <t>48 testes da conta</t>
+  </si>
+  <si>
+    <t>cucumber -p default --tags "not @ignore and @regression" --retry 2</t>
+  </si>
+  <si>
+    <t>cucumber -p other --tags "not @ignore and @home" --retry 2</t>
+  </si>
+  <si>
+    <t>cucumber -p other --tags "not @ignore and @account" --retry 2</t>
+  </si>
+  <si>
+    <t>cucumber -p other --tags "not @ignore and @regression" --retry 2</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1655,6 +1691,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,15 +2395,15 @@
     </row>
     <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B15" s="33">
         <f>COUNTA(Cenários!I2:I65)</f>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C15" s="35">
         <f>B15/B11</f>
-        <v>0.65079365079365081</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="D15" s="28"/>
     </row>
@@ -2392,8 +2431,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -2452,17 +2491,17 @@
         <v>29</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="15"/>
       <c r="I3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2479,19 +2518,19 @@
         <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="15"/>
       <c r="I4" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>27</v>
@@ -2503,62 +2542,62 @@
         <v>34</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="15"/>
       <c r="I5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="15"/>
       <c r="I6" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="15"/>
       <c r="I7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
@@ -2575,12 +2614,15 @@
         <v>37</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="15"/>
+      <c r="I8" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -2590,20 +2632,20 @@
         <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="15"/>
       <c r="I9" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
@@ -2617,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>38</v>
@@ -2627,6 +2669,9 @@
       </c>
       <c r="G10" s="15" t="s">
         <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
@@ -2637,1278 +2682,1329 @@
         <v>35</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>43</v>
+        <v>228</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="15"/>
+      <c r="I12" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="15"/>
+      <c r="I13" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="15"/>
       <c r="I14" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="15"/>
       <c r="I15" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="15"/>
       <c r="I16" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="15"/>
       <c r="I17" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="15"/>
       <c r="I18" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="D19" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="15"/>
       <c r="I19" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="15"/>
       <c r="I20" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="15"/>
       <c r="I23" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="15"/>
       <c r="I24" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="15"/>
+      <c r="I27" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="15"/>
       <c r="I29" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="15"/>
+      <c r="I30" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="15"/>
       <c r="I32" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="15"/>
+      <c r="I33" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="15"/>
+      <c r="I34" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="15"/>
       <c r="I36" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="15"/>
       <c r="I37" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="15"/>
+      <c r="I38" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="15"/>
+      <c r="I39" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>196</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F40" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="15"/>
+      <c r="I40" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="15"/>
       <c r="I41" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="E42" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="15"/>
       <c r="I43" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="E45" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="15"/>
       <c r="I45" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="E46" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="15"/>
       <c r="I46" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C47" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="15"/>
       <c r="I47" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="15"/>
       <c r="I48" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="15"/>
       <c r="I49" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="15"/>
       <c r="I50" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="15"/>
       <c r="I51" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="15"/>
       <c r="I52" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="15"/>
       <c r="I53" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="15"/>
       <c r="I54" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="15"/>
       <c r="I55" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="15"/>
       <c r="I56" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G57" s="15"/>
       <c r="I57" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G58" s="15"/>
       <c r="I58" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="15"/>
       <c r="I59" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="15"/>
       <c r="I60" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="15"/>
       <c r="I61" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="15"/>
       <c r="I62" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C63" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="15"/>
       <c r="I63" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="15"/>
       <c r="I64" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3938,10 +4034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3951,15 +4047,15 @@
     <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
@@ -3971,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
@@ -3984,7 +4080,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>12</v>
       </c>
@@ -3997,7 +4093,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
@@ -4010,8 +4106,137 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>51</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>39</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>48</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="29">
+        <f>SUM(A11:A17)</f>
+        <v>138</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900C37F-2F2B-41B1-9A83-1A011766B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03180B-3453-406A-9C48-5E3C715F337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -1683,6 +1683,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1691,9 +1694,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,8 +2431,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G65" sqref="A1:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4027,7 +4027,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4036,7 +4036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4049,11 +4049,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -4118,22 +4118,22 @@
       <c r="B11" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -4149,22 +4149,22 @@
       <c r="B14" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -4180,22 +4180,22 @@
       <c r="B17" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -4212,23 +4212,24 @@
       <c r="B21" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C11:F11"/>
@@ -4237,7 +4238,6 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PlanoDeTestes/ParaBank.xlsx
+++ b/PlanoDeTestes/ParaBank.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C03180B-3453-406A-9C48-5E3C715F337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCFA3DE-56DD-4C74-BE26-2E95D8EF99E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumário" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="242">
   <si>
     <t>Projeto</t>
   </si>
@@ -1102,6 +1102,9 @@
   </si>
   <si>
     <t>cucumber -p other --tags "not @ignore and @regression" --retry 2</t>
+  </si>
+  <si>
+    <t>cucumber -p other --tags "not @ignore and @user" --retry 2</t>
   </si>
 </sst>
 </file>
@@ -1683,17 +1686,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,7 +2434,7 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G65" sqref="A1:G65"/>
     </sheetView>
   </sheetViews>
@@ -4036,8 +4039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4049,11 +4052,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
@@ -4118,22 +4121,22 @@
       <c r="B11" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
@@ -4149,22 +4152,22 @@
       <c r="B14" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -4180,22 +4183,22 @@
       <c r="B17" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -4212,20 +4215,20 @@
       <c r="B21" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
